--- a/Outputs/3. Prosumer percentage/Output Files/75/Output_3_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/75/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1621350.665636264</v>
+        <v>1605491.896289734</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>165.1440698839799</v>
+        <v>385.2967624026793</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
@@ -673,13 +673,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>48.57570989689602</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -876,10 +876,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>231.1681642786219</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.722721228400218</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
@@ -904,7 +904,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>15.15158726689876</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
@@ -913,7 +913,7 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>175.4647255438872</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.88126300749879</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>10.03023574411211</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1153,7 +1153,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>293.3012725509434</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1201,7 +1201,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1299,16 +1299,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>169.1225351906784</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>108.5112409236469</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1378,7 +1378,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>222.2025742562865</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1387,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>271.4342543713333</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1426,7 +1426,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>128.7364752392607</v>
+        <v>77.72590661309992</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -1596,7 +1596,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>309.974021089658</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1666,7 +1666,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>309.8783980016757</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>104.4245127126518</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>58.87768236127998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
@@ -1855,7 +1855,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>370.972945883516</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>22.92681701721074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>73.98320334837379</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>65.01598051309966</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2083,13 +2083,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>373.736032213064</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2137,13 +2137,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>191.9284587841978</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>11.22535429200825</v>
+        <v>29.1213059813956</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
@@ -2298,7 +2298,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>373.736032213064</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>39.64108301376388</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>35.50861035741645</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2557,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>218.0291057078766</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2566,7 +2566,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>193.7524915407167</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -2575,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>72.15339398280545</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>261.4634504308968</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2794,10 +2794,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>265.7345771113586</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2806,10 +2806,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>368.180220150888</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2958,10 +2958,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>55.69551283691953</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3009,16 +3009,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>25.35908699567619</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,13 +3031,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>271.338631283351</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>53.20093248929918</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3046,10 +3046,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.88390027675852</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>13.88126300749902</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>43.42340976889702</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3334,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>39.93142548241784</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>128.7560630900389</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>198.0675939639902</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3514,13 +3514,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>378.9769832968749</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>219.2279701699388</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>128.2439087053993</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>100.3540841219662</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>187.1291969431396</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>123.8394724344234</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>42.43741174507669</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3963,10 +3963,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.2958220410262</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3979,13 +3979,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>363.9585094926619</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>314.0518665500862</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -4036,7 +4036,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>154.5330887295194</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.990926276226</v>
+        <v>1277.096428763703</v>
       </c>
       <c r="C2" t="n">
-        <v>326.9067396299002</v>
+        <v>866.9718380769729</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
         <v>1726.536628995245</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522213</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1717019003114</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="3">
@@ -4412,25 +4412,25 @@
         <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>751.4208778585607</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>751.4208778585607</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1268.263812524886</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="O3" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>317.6057762023659</v>
+        <v>90.83145926283035</v>
       </c>
       <c r="C4" t="n">
-        <v>317.6057762023659</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4515,25 +4515,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1246.342524902554</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5443774486778</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5443774486778</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>730.0411812076455</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="X4" t="n">
-        <v>730.0411812076455</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="Y4" t="n">
-        <v>505.3054825964102</v>
+        <v>278.5311656568747</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1199.239803110925</v>
+        <v>893.3361278988716</v>
       </c>
       <c r="C5" t="n">
-        <v>789.1152124241949</v>
+        <v>483.2115372121417</v>
       </c>
       <c r="D5" t="n">
-        <v>384.6512825172554</v>
+        <v>78.74760730520222</v>
       </c>
       <c r="E5" t="n">
-        <v>374.3514710745562</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F5" t="n">
-        <v>357.3614630686478</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4567,19 +4567,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L5" t="n">
-        <v>1075.450954962253</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M5" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N5" t="n">
-        <v>1726.536628995245</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
         <v>1726.536628995245</v>
@@ -4597,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1608.987305686471</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X5" t="n">
-        <v>1608.987305686471</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="Y5" t="n">
-        <v>1208.050632634561</v>
+        <v>1303.557307563361</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>704.7239474634683</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>704.7239474634683</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O6" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>981.4914807361952</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>810.3981082979117</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>650.9034636208218</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
         <v>158.1111315252759</v>
@@ -4767,10 +4767,10 @@
         <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>1332.820120110135</v>
+        <v>1393.926885741475</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>1169.19118713024</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2051.5732510295</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>2045.489064383174</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>1641.025134476234</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>1226.684918993131</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>805.6545069468186</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>396.9262228396508</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>86.01772546736876</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
         <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>340.2031969351231</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K8" t="n">
-        <v>878.3626980441626</v>
+        <v>564.8467047942797</v>
       </c>
       <c r="L8" t="n">
-        <v>1236.881458916953</v>
+        <v>1277.438104606518</v>
       </c>
       <c r="M8" t="n">
-        <v>2013.200049908707</v>
+        <v>2053.756695598272</v>
       </c>
       <c r="N8" t="n">
-        <v>2766.381066547325</v>
+        <v>2806.93771223689</v>
       </c>
       <c r="O8" t="n">
-        <v>3410.01192296443</v>
+        <v>3450.568568653995</v>
       </c>
       <c r="P8" t="n">
-        <v>3939.168620883581</v>
+        <v>3979.725266573146</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678873</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
         <v>4300.886273368438</v>
@@ -4837,19 +4837,19 @@
         <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>3943.398714109398</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>3647.134802441778</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>3263.374501576946</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>2862.731103745899</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>2461.794430693989</v>
+        <v>2552.096969009509</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>734.6368392953007</v>
+        <v>278.830583030002</v>
       </c>
       <c r="L9" t="n">
-        <v>1395.725011214589</v>
+        <v>278.830583030002</v>
       </c>
       <c r="M9" t="n">
-        <v>1570.801028829339</v>
+        <v>317.7389526711072</v>
       </c>
       <c r="N9" t="n">
-        <v>1570.801028829339</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="O9" t="n">
-        <v>1570.801028829339</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="P9" t="n">
-        <v>2132.506921317869</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
-        <v>2132.506921317869</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>700.2021795528726</v>
+        <v>1008.101184694049</v>
       </c>
       <c r="C10" t="n">
-        <v>529.1088071145891</v>
+        <v>837.0078122557652</v>
       </c>
       <c r="D10" t="n">
-        <v>369.6141624374992</v>
+        <v>677.5131675786752</v>
       </c>
       <c r="E10" t="n">
-        <v>369.6141624374992</v>
+        <v>516.6023524469947</v>
       </c>
       <c r="F10" t="n">
-        <v>369.6141624374992</v>
+        <v>351.971226557586</v>
       </c>
       <c r="G10" t="n">
-        <v>202.3637713630426</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
         <v>202.3637713630426</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1615.416622088219</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1615.416622088219</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.416622088219</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="U10" t="n">
-        <v>1332.618474634343</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="V10" t="n">
-        <v>1058.732729573865</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="W10" t="n">
-        <v>887.901885946917</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="X10" t="n">
-        <v>887.901885946917</v>
+        <v>1420.536589699328</v>
       </c>
       <c r="Y10" t="n">
-        <v>887.901885946917</v>
+        <v>1195.800891088093</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2512.458907120301</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C11" t="n">
-        <v>2102.334316433571</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D11" t="n">
-        <v>1697.870386526632</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E11" t="n">
-        <v>1283.530171043528</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>862.4997589972158</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>453.771474890048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
         <v>179.5954603735497</v>
@@ -5044,7 +5044,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5074,19 +5074,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>947.1447271725442</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M12" t="n">
-        <v>947.1447271725442</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N12" t="n">
-        <v>1548.467481689963</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O12" t="n">
-        <v>1548.467481689963</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
         <v>2110.173374178493</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
         <v>93.2436976906228</v>
@@ -5226,25 +5226,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T13" t="n">
-        <v>1383.093855288175</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U13" t="n">
-        <v>1383.093855288175</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V13" t="n">
-        <v>1253.057011612154</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W13" t="n">
-        <v>973.9873471210285</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X13" t="n">
-        <v>735.6434849807119</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y13" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2139.066799289355</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
         <v>2139.066799289355</v>
@@ -5314,16 +5314,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3734.628350701634</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W14" t="n">
-        <v>3350.868049836802</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X14" t="n">
-        <v>2950.224652005755</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y14" t="n">
-        <v>2549.287978953845</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>2053.115206569777</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="N15" t="n">
-        <v>2053.115206569777</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="O15" t="n">
-        <v>2053.115206569777</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P15" t="n">
-        <v>2053.115206569777</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q15" t="n">
         <v>2110.173374178493</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.9775821053987</v>
+        <v>323.8094765544416</v>
       </c>
       <c r="C16" t="n">
-        <v>526.8842096671152</v>
+        <v>152.7161041161581</v>
       </c>
       <c r="D16" t="n">
-        <v>526.8842096671152</v>
+        <v>152.7161041161581</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9733945354347</v>
+        <v>152.7161041161581</v>
       </c>
       <c r="F16" t="n">
-        <v>260.4940887650794</v>
+        <v>152.7161041161581</v>
       </c>
       <c r="G16" t="n">
         <v>93.2436976906228</v>
@@ -5469,19 +5469,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>1622.642594311473</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V16" t="n">
-        <v>1348.756849250995</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W16" t="n">
-        <v>1348.756849250995</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.412987110678</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y16" t="n">
-        <v>885.6772884994431</v>
+        <v>323.8094765544416</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2502.881125286859</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C17" t="n">
-        <v>2092.756534600129</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D17" t="n">
-        <v>1688.29260469319</v>
+        <v>1671.409507726974</v>
       </c>
       <c r="E17" t="n">
-        <v>1273.952389210086</v>
+        <v>1257.069292243871</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>836.0388801975582</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>427.3105960903904</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>116.4020987181084</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5518,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5554,13 +5554,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X17" t="n">
-        <v>3314.038978003258</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2913.102304951348</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>966.9017898022406</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>1670.858880348135</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>264.3370701289063</v>
+        <v>659.4730383703776</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>488.3796659320941</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>328.8850212550041</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>167.9742061233236</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>167.9742061233236</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>167.9742061233236</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>167.9742061233236</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5703,22 +5703,22 @@
         <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U19" t="n">
-        <v>828.6312213896092</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V19" t="n">
-        <v>554.7454763291312</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="W19" t="n">
-        <v>554.7454763291312</v>
+        <v>1071.908443375657</v>
       </c>
       <c r="X19" t="n">
-        <v>489.0727687401416</v>
+        <v>1071.908443375657</v>
       </c>
       <c r="Y19" t="n">
-        <v>264.3370701289063</v>
+        <v>847.172744764422</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>2102.237727455811</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1697.773797548872</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
         <v>1320.262653899312</v>
@@ -5785,19 +5785,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4110.830195187051</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5831,13 +5831,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>355.6459363114127</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>355.6459363114127</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
         <v>1198.623017005979</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>275.6758118380055</v>
+        <v>410.0985766118484</v>
       </c>
       <c r="C22" t="n">
-        <v>104.582439399722</v>
+        <v>239.0052041735649</v>
       </c>
       <c r="D22" t="n">
-        <v>104.582439399722</v>
+        <v>239.0052041735649</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V22" t="n">
-        <v>554.7454763291312</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="W22" t="n">
-        <v>275.6758118380055</v>
+        <v>634.8342752230838</v>
       </c>
       <c r="X22" t="n">
-        <v>275.6758118380055</v>
+        <v>634.8342752230838</v>
       </c>
       <c r="Y22" t="n">
-        <v>275.6758118380055</v>
+        <v>410.0985766118484</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>2102.237727455811</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1697.773797548872</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6031,10 +6031,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>182.7137268369972</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>182.7137268369972</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>182.7137268369972</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
         <v>1760.328909494509</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>413.6491574993933</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>413.6491574993933</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
         <v>93.2436976906228</v>
@@ -6174,25 +6174,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1586.775311122163</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1347.226572098866</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>1064.42842464499</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V25" t="n">
-        <v>1064.42842464499</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W25" t="n">
-        <v>1064.42842464499</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X25" t="n">
-        <v>826.084562504673</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y25" t="n">
-        <v>601.3488638934377</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2359.298219196301</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U26" t="n">
-        <v>4304.697325272099</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V26" t="n">
-        <v>3954.85977060858</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W26" t="n">
-        <v>3571.099469743748</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X26" t="n">
-        <v>3170.456071912701</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y26" t="n">
-        <v>2769.519398860791</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>947.1447271725442</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M27" t="n">
-        <v>947.1447271725442</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>947.1447271725442</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>376.8401346607533</v>
+        <v>971.8633271658769</v>
       </c>
       <c r="C28" t="n">
-        <v>376.8401346607533</v>
+        <v>800.7699547275934</v>
       </c>
       <c r="D28" t="n">
-        <v>376.8401346607533</v>
+        <v>641.2753100505033</v>
       </c>
       <c r="E28" t="n">
-        <v>376.8401346607533</v>
+        <v>480.3644949188228</v>
       </c>
       <c r="F28" t="n">
-        <v>376.8401346607533</v>
+        <v>315.7333690294141</v>
       </c>
       <c r="G28" t="n">
-        <v>209.5897435862967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6414,22 +6414,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1383.093855288175</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U28" t="n">
-        <v>1383.093855288175</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V28" t="n">
-        <v>1118.989359903431</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W28" t="n">
-        <v>839.9196954123051</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X28" t="n">
-        <v>601.5758332719886</v>
+        <v>1384.298732171156</v>
       </c>
       <c r="Y28" t="n">
-        <v>376.8401346607533</v>
+        <v>1159.563033559921</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="D29" t="n">
-        <v>1423.694372010133</v>
+        <v>1697.773797548872</v>
       </c>
       <c r="E29" t="n">
-        <v>1009.35415652703</v>
+        <v>1283.433582065768</v>
       </c>
       <c r="F29" t="n">
-        <v>588.3237444807176</v>
+        <v>862.403170019456</v>
       </c>
       <c r="G29" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6542,22 +6542,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>549.0499539559215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>549.0499539559215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>549.0499539559215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>1253.007044501816</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
         <v>1760.328909494509</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>578.280283388802</v>
+        <v>308.996436142379</v>
       </c>
       <c r="C31" t="n">
-        <v>578.280283388802</v>
+        <v>308.996436142379</v>
       </c>
       <c r="D31" t="n">
-        <v>418.7856387117121</v>
+        <v>149.501791465289</v>
       </c>
       <c r="E31" t="n">
-        <v>257.8748235800315</v>
+        <v>149.501791465289</v>
       </c>
       <c r="F31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>828.6312213896092</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>828.6312213896092</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>803.0159820000373</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>578.280283388802</v>
+        <v>308.996436142379</v>
       </c>
     </row>
     <row r="32">
@@ -6679,22 +6679,22 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E32" t="n">
-        <v>1233.910891216385</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M33" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N33" t="n">
-        <v>1198.623017005979</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O33" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>264.3370701289063</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1111.429368843485</v>
+        <v>1608.62111652612</v>
       </c>
       <c r="U34" t="n">
-        <v>828.6312213896092</v>
+        <v>1608.62111652612</v>
       </c>
       <c r="V34" t="n">
-        <v>828.6312213896092</v>
+        <v>1608.62111652612</v>
       </c>
       <c r="W34" t="n">
-        <v>549.5615568984836</v>
+        <v>1608.62111652612</v>
       </c>
       <c r="X34" t="n">
-        <v>549.5615568984836</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="Y34" t="n">
-        <v>324.8258582872483</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
         <v>1648.251106699488</v>
@@ -6937,7 +6937,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674168</v>
@@ -6982,7 +6982,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7016,19 +7016,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>524.2254458227151</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>524.2254458227151</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>524.2254458227151</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
         <v>1228.182536368609</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>413.9445253234496</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C37" t="n">
-        <v>242.8511528851661</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D37" t="n">
-        <v>242.8511528851661</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E37" t="n">
-        <v>242.8511528851661</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F37" t="n">
-        <v>242.8511528851661</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7122,25 +7122,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T37" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U37" t="n">
-        <v>1150.90983113548</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V37" t="n">
-        <v>877.0240860750016</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W37" t="n">
-        <v>877.0240860750016</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X37" t="n">
-        <v>638.6802239346849</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="Y37" t="n">
-        <v>413.9445253234496</v>
+        <v>1312.634177375637</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F38" t="n">
-        <v>873.3089913790386</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H38" t="n">
         <v>179.5954603735497</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>524.2254458227151</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
         <v>1228.182536368609</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>260.4940887650794</v>
+        <v>520.1080139125206</v>
       </c>
       <c r="C40" t="n">
-        <v>260.4940887650794</v>
+        <v>520.1080139125206</v>
       </c>
       <c r="D40" t="n">
-        <v>260.4940887650794</v>
+        <v>520.1080139125206</v>
       </c>
       <c r="E40" t="n">
-        <v>260.4940887650794</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F40" t="n">
-        <v>260.4940887650794</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1306.711524468757</v>
       </c>
       <c r="U40" t="n">
-        <v>828.6312213896092</v>
+        <v>1023.913377014882</v>
       </c>
       <c r="V40" t="n">
-        <v>828.6312213896092</v>
+        <v>1023.913377014882</v>
       </c>
       <c r="W40" t="n">
-        <v>549.5615568984836</v>
+        <v>744.8437125237559</v>
       </c>
       <c r="X40" t="n">
-        <v>549.5615568984836</v>
+        <v>744.8437125237559</v>
       </c>
       <c r="Y40" t="n">
-        <v>448.1937951591237</v>
+        <v>520.1080139125206</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2549.191389976085</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4526.90380932524</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U41" t="n">
-        <v>4269.84331758475</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V41" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W41" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X41" t="n">
-        <v>3360.349242692484</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y41" t="n">
-        <v>2959.412569640574</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>2615.69568868064</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M42" t="n">
-        <v>3438.682327735538</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>4312.340419847156</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>4312.340419847156</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>4312.340419847156</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>423.8317148059963</v>
+        <v>136.1097701603972</v>
       </c>
       <c r="C43" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>1111.429368843485</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V43" t="n">
-        <v>837.543623783007</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W43" t="n">
-        <v>558.4739592918813</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X43" t="n">
-        <v>558.4739592918813</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y43" t="n">
-        <v>423.8317148059963</v>
+        <v>323.8094765544416</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2452.075282119331</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>2041.950691432601</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D44" t="n">
-        <v>1637.486761525662</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
         <v>1320.262653899312</v>
@@ -7648,10 +7648,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7684,16 +7684,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>4047.636833531609</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3663.876532666778</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>3263.23313483573</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2862.29646178382</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>735.0499203580262</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M45" t="n">
-        <v>1578.027001052593</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N45" t="n">
-        <v>1578.027001052593</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O45" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>691.0787157447054</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C46" t="n">
-        <v>691.0787157447054</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D46" t="n">
-        <v>691.0787157447054</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E46" t="n">
         <v>691.0787157447054</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U46" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V46" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W46" t="n">
-        <v>1071.908443375657</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X46" t="n">
-        <v>1071.908443375657</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y46" t="n">
-        <v>847.172744764422</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
@@ -7993,10 +7993,10 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P2" t="n">
-        <v>229.2480899138817</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8060,10 +8060,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
@@ -8072,16 +8072,16 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>363.9611095948396</v>
+        <v>564.4415429491205</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>208.9223179663055</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
@@ -8224,13 +8224,13 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>228.5110173896169</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
@@ -8294,19 +8294,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>265.3595799407153</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>559.8834573428708</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
@@ -8318,7 +8318,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7318453389136</v>
+        <v>572.8020253569655</v>
       </c>
       <c r="L8" t="n">
-        <v>457.6255605606128</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
         <v>877.4504173780091</v>
@@ -8476,7 +8476,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>234.4087459755383</v>
+        <v>96.86566721428126</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
@@ -8552,10 +8552,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8771,16 +8771,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>660.5901151285162</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
@@ -8789,7 +8789,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -9005,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
@@ -9014,7 +9014,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>204.5506456092455</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
@@ -9023,10 +9023,10 @@
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>114.3271312409158</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>527.8697493391553</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O20" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P20" t="n">
         <v>628.1510783507341</v>
@@ -9479,16 +9479,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>320.8785490682416</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
@@ -9716,25 +9716,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>146.199549599135</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>410.0708656603775</v>
@@ -9956,10 +9956,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
@@ -9968,13 +9968,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>695.0063011010592</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10205,10 +10205,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>566.7059632782517</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
@@ -10427,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
@@ -10439,10 +10439,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>709.3278005150205</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
@@ -10451,7 +10451,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K35" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
         <v>815.2746908024792</v>
@@ -10664,13 +10664,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>491.4496229341746</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10679,7 +10679,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
@@ -10843,7 +10843,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10901,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>488.5284925170755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
@@ -11138,25 +11138,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M42" t="n">
-        <v>888.863919147406</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
         <v>877.4504173780091</v>
@@ -11375,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>243.9932777523689</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>187.9942390719857</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>36.36515802722585</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23466,16 +23466,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>142.4104123706126</v>
+        <v>193.4209809967733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>96.14494677818652</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>36.46078111520842</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>58.56030191786289</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>106.700204802432</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
@@ -23709,13 +23709,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>45.84716204233325</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>62.56142803888683</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -23910,7 +23910,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>41.19938208834331</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>170.9444430058138</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>36.46078111520819</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24025,13 +24025,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>62.56142803888719</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>148.0763526883555</v>
+        <v>130.1804009989681</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24147,7 +24147,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>36.46078111520819</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -24414,19 +24414,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>149.0192400814724</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>187.994239071986</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>93.42449318090655</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>9.683437178976476</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>36.46078111520808</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>107.2893017935951</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>210.6013365232373</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24919,13 +24919,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>134.6847134965116</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>125.9388090533454</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>223.2719886255659</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>57.0666462400651</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>81.90257201534683</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>25.66401796922122</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>88.57144222862041</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25557,19 +25557,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>108.9093429276656</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>122.1342575031567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>222.4997066824607</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>126.945026968824</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>89.19251958409674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>42.06483528720065</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>96.14494677818607</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.28962060058456</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -26085,10 +26085,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666926.3726212094</v>
+        <v>666926.3726212092</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666926.3726212094</v>
+        <v>666926.3726212095</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666926.3726212092</v>
+        <v>666926.3726212094</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666926.3726212091</v>
+        <v>666926.3726212095</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666926.3726212094</v>
+        <v>666926.3726212092</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666926.3726212094</v>
+        <v>666926.3726212092</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666926.3726212094</v>
+        <v>666926.3726212095</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666926.3726212094</v>
+        <v>666926.3726212092</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>439782.4611876336</v>
+      </c>
+      <c r="C2" t="n">
         <v>439782.4611876337</v>
-      </c>
-      <c r="C2" t="n">
-        <v>439782.4611876339</v>
       </c>
       <c r="D2" t="n">
         <v>439782.4611876339</v>
       </c>
       <c r="E2" t="n">
-        <v>391025.7011723767</v>
+        <v>391025.7011723768</v>
       </c>
       <c r="F2" t="n">
-        <v>391025.7011723768</v>
+        <v>391025.7011723769</v>
       </c>
       <c r="G2" t="n">
         <v>391025.7011723768</v>
@@ -26334,25 +26334,25 @@
         <v>391025.7011723768</v>
       </c>
       <c r="I2" t="n">
-        <v>391025.7011723767</v>
+        <v>391025.7011723768</v>
       </c>
       <c r="J2" t="n">
+        <v>391025.7011723769</v>
+      </c>
+      <c r="K2" t="n">
         <v>391025.7011723768</v>
-      </c>
-      <c r="K2" t="n">
-        <v>391025.7011723767</v>
       </c>
       <c r="L2" t="n">
         <v>391025.7011723768</v>
       </c>
       <c r="M2" t="n">
-        <v>391025.7011723767</v>
+        <v>391025.7011723766</v>
       </c>
       <c r="N2" t="n">
-        <v>391025.7011723767</v>
+        <v>391025.7011723768</v>
       </c>
       <c r="O2" t="n">
-        <v>391025.7011723767</v>
+        <v>391025.7011723769</v>
       </c>
       <c r="P2" t="n">
         <v>391025.7011723768</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188036.4383295208</v>
+        <v>188497.6271992067</v>
       </c>
       <c r="C4" t="n">
-        <v>188036.4383295208</v>
+        <v>188497.6271992067</v>
       </c>
       <c r="D4" t="n">
-        <v>105624.7060556577</v>
+        <v>106294.0542710904</v>
       </c>
       <c r="E4" t="n">
-        <v>50939.98856418105</v>
+        <v>51643.32692474166</v>
       </c>
       <c r="F4" t="n">
-        <v>50939.98856418106</v>
+        <v>51643.32692474167</v>
       </c>
       <c r="G4" t="n">
-        <v>50939.98856418106</v>
+        <v>51643.32692474166</v>
       </c>
       <c r="H4" t="n">
-        <v>50939.98856418106</v>
+        <v>51643.32692474166</v>
       </c>
       <c r="I4" t="n">
-        <v>50939.98856418106</v>
+        <v>51643.32692474166</v>
       </c>
       <c r="J4" t="n">
-        <v>50939.98856418106</v>
+        <v>51643.32692474167</v>
       </c>
       <c r="K4" t="n">
-        <v>50939.98856418107</v>
+        <v>51643.32692474166</v>
       </c>
       <c r="L4" t="n">
-        <v>50939.98856418107</v>
+        <v>51643.32692474167</v>
       </c>
       <c r="M4" t="n">
-        <v>50939.98856418107</v>
+        <v>51643.32692474167</v>
       </c>
       <c r="N4" t="n">
-        <v>50939.98856418105</v>
+        <v>51643.32692474166</v>
       </c>
       <c r="O4" t="n">
-        <v>50939.98856418105</v>
+        <v>51643.32692474167</v>
       </c>
       <c r="P4" t="n">
-        <v>50939.98856418106</v>
+        <v>51643.32692474167</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11421.44788650134</v>
+        <v>10960.25901681525</v>
       </c>
       <c r="C6" t="n">
-        <v>186376.9577796155</v>
+        <v>185915.7689099295</v>
       </c>
       <c r="D6" t="n">
-        <v>63329.21486670748</v>
+        <v>62659.86665127476</v>
       </c>
       <c r="E6" t="n">
-        <v>242251.5481823881</v>
+        <v>239742.4038953366</v>
       </c>
       <c r="F6" t="n">
-        <v>269220.5023633224</v>
+        <v>266711.3580762709</v>
       </c>
       <c r="G6" t="n">
-        <v>269220.5023633224</v>
+        <v>266711.3580762708</v>
       </c>
       <c r="H6" t="n">
-        <v>269220.5023633224</v>
+        <v>266711.3580762708</v>
       </c>
       <c r="I6" t="n">
-        <v>269220.5023633223</v>
+        <v>266711.3580762708</v>
       </c>
       <c r="J6" t="n">
-        <v>132625.7015574274</v>
+        <v>130116.5572703759</v>
       </c>
       <c r="K6" t="n">
-        <v>269220.5023633223</v>
+        <v>266711.3580762708</v>
       </c>
       <c r="L6" t="n">
-        <v>129221.1914985696</v>
+        <v>126712.047211518</v>
       </c>
       <c r="M6" t="n">
-        <v>246711.2375892749</v>
+        <v>244202.0933022232</v>
       </c>
       <c r="N6" t="n">
-        <v>269220.5023633223</v>
+        <v>266711.3580762708</v>
       </c>
       <c r="O6" t="n">
-        <v>269220.5023633223</v>
+        <v>266711.358076271</v>
       </c>
       <c r="P6" t="n">
-        <v>269220.5023633224</v>
+        <v>266711.3580762708</v>
       </c>
     </row>
   </sheetData>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>235.2752207238901</v>
+        <v>15.12252820519069</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>120.8067288170046</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -27557,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,10 +27596,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>45.11080356759246</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>397.3962466394444</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>395.0452260613735</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -27669,16 +27669,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>60.49569797502627</v>
       </c>
       <c r="Y7" t="n">
-        <v>208.6070786176241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.0887321237324</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>53.03790656594072</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -28067,19 +28067,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>107.156432655536</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>127.4491825952666</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P2" t="n">
-        <v>135.5987266329976</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34780,10 +34780,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,16 +34792,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>306.2096305948396</v>
+        <v>506.6900639491205</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
@@ -34944,13 +34944,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N5" t="n">
-        <v>135.5987266329976</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>209.2450561298663</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
@@ -35038,7 +35038,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>543.5954556656965</v>
+        <v>483.6656356837484</v>
       </c>
       <c r="L8" t="n">
-        <v>362.140162497768</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
         <v>784.1601929209636</v>
@@ -35196,7 +35196,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>176.8444622371208</v>
+        <v>39.30138347586384</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,10 +35272,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35491,16 +35491,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>607.3967217347663</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
@@ -35734,7 +35734,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>146.9863618708281</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.63451273607708</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>473.6101143363516</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O20" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P20" t="n">
         <v>534.50171506985</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>265.0527662836262</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>90.37376681451964</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>353.3782471555388</v>
@@ -36676,10 +36676,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,13 +36688,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>637.2548221010592</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,10 +36925,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>512.446328275448</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
@@ -37159,10 +37159,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>656.1344071212706</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
@@ -37171,7 +37171,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K35" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
         <v>719.7892927396343</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>435.3350991233255</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,7 +37399,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
@@ -37563,7 +37563,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>435.3350991233255</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>567.3796893823536</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M42" t="n">
-        <v>831.2996354089886</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
         <v>784.1601929209636</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>187.8787539415198</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
